--- a/Tables_excel/Mystery_france_2023/Raw_data/Mystery_visits_FR.xlsx
+++ b/Tables_excel/Mystery_france_2023/Raw_data/Mystery_visits_FR.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnaKatherineRiveraMo\Documents\Proyectos\Mystery shoppings\France - 2023\MSV_France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnaKatherineRiveraMo\Documents\GitHub\Data.2DII\Tables_excel\Mystery_france_2023\Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD32267-C2F9-4403-8575-91F72C1662A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BC0104-5618-47EB-97A1-95E780C7E9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-1680" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$CD$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$CC$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="529">
   <si>
     <t>respondent_id</t>
   </si>
@@ -290,9 +290,6 @@
     <t>M’a beaucoup vanté les verrues de sa banque, mutualiste, tournée vers les énergies renouvelables... plutôt bon conseil à mon avis sur la marche à suivre, diversification, prise de risque...</t>
   </si>
   <si>
-    <t xml:space="preserve">Autofocus et fédéral global Green bounds </t>
-  </si>
-  <si>
     <t>91.69.118.105</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
     <t xml:space="preserve">Très compétent </t>
   </si>
   <si>
-    <t>FR001400DVX1</t>
-  </si>
-  <si>
     <t>88.121.168.65</t>
   </si>
   <si>
@@ -362,9 +356,6 @@
     <t xml:space="preserve">Pour faire court, elle m'a invité à me reférer sur leur site pour tous les autres produits et ceux de ARKEA. Elle m'a par contre mieux expliqué ce qu'épargner voulait dire, ce que les gens font généralement, les types d'investissements et autres. Par contre, certes, aucune référence aux investissements verts dans sa presentation. Elle était toutefois plus à l'écoute que mon premier rdv. Elle m'a posé des questions alors que mon premier rdv, lui, il ne m'a rien demandé. Je l'ai trouvé tres sympa en tout cas et flexible lorsque je lui demandais des choses. Elle n'a pas pu montrer d'autres produits, elle est resté vague me demandant de regarder sur le site. Elle m'a quand meme montré longuement la page ARKEA sur le climat comme s'il n'avait que ca. Seulement à la fin elle m'a imprimé une page sur Federal finance gestion. </t>
   </si>
   <si>
-    <t xml:space="preserve">FR001400GYV2 </t>
-  </si>
-  <si>
     <t>27/06/2023</t>
   </si>
   <si>
@@ -422,9 +413,6 @@
     <t>Ce rendez-vous était assez rapide lorsqu'il a compris mes attentes. Il m'a précisé qu'il ne connaissait pas en détail les produits de ces catégories et que je devais remplir un formulaire et prendre un deuxième rendez-vous pour apronfondir. Je suis allée chez ma mère en Dordogne. J'ai donc pu prendre rdv à Sarlat et non sur Bordeaux. Il ne m'a pas dit pourquoi je revenais dans leur enseigne. Ils n'ont pas du faire le lien avec celui de Bordeaux</t>
   </si>
   <si>
-    <t>il y en avait beaucoup qu'on lisait sur internet. J'ai noté: FR0010642280 - : FR0013417565 - FR0010214213 - : FR0010642280 - LU0503631987</t>
-  </si>
-  <si>
     <t>Elle n'a pas vraiment expliqué les préférences comme nous pourrions le souhaiter je pense. Elle m'a énuméré les catégories "environnement, eau et social".</t>
   </si>
   <si>
@@ -455,9 +443,6 @@
     <t>C'était légèrement différent des autres rendez-vous puisque ce n'était pas le même profil. J'ai eu du mal au début même si finalement ca reste très similaire mais même en insistant sur le changement climatique et la proportion, je pense qu'elle n'écoutez pas les détails car pour elle, il y aurait un deuxième rdv avec les questionnaires dont elle m'a parlé. Je pense qu'elle voulait juste faire le tour de la question. Alors attention, elle était toutefois très agréable et à l'écoute mais ne connaissant pas les produits, elle rebondissait plutot sur les options d'investissement Livret CODEVAIR, assurance vie etc... Elle me disait que des experts comme IRISEA /NATIXIS serait plus en mesure de m'orienter une fois les questionnaires remplis</t>
   </si>
   <si>
-    <t>FR0014003JX1 -  LU2169559270</t>
-  </si>
-  <si>
     <t>93.22.133.169</t>
   </si>
   <si>
@@ -527,9 +512,6 @@
     <t>Le produit financier est labellisé (Greenfin, ISR etc.)</t>
   </si>
   <si>
-    <t>LU1902443420</t>
-  </si>
-  <si>
     <t>05/07/2023</t>
   </si>
   <si>
@@ -569,9 +551,6 @@
     <t>Il semblerait qu'elle a regulierement de nouveaux investissements verts et par consequent, elle connait bien son sujet. il y a beaucoup à retenir, beaucoup de possibilités mais ce qui est sympa avec ce rdv c'est qu'elle était toutefois à l'écoute et repondait en fonction.</t>
   </si>
   <si>
-    <t xml:space="preserve">LU0406802768 - FR0010668145 - LU2446381555 - FR0010028902 - je n'ai pas tout noté. Il y avait aussi des prdt pour investir soit en FRANCE soit dans le MONDE. </t>
-  </si>
-  <si>
     <t>77.136.66.54</t>
   </si>
   <si>
@@ -596,9 +575,6 @@
     <t xml:space="preserve">Peu satisfait </t>
   </si>
   <si>
-    <t>LU0406802339</t>
-  </si>
-  <si>
     <t>30/06/2023</t>
   </si>
   <si>
@@ -674,9 +650,6 @@
     <t xml:space="preserve">Cette semaine toutes les banques m'ont parlé de questionnaires à défaut des autres rdv que j'avais eu. Pour eux ce rdv n'etait qu'une première approche pour me connaitre et qu'une fois les questionnaires remplis, ils pourraient m'en dire plus et m'aiguiller selon mes attentes. Il etait difficile de faire du forcing pour obtenir des produits mais j'en ai quand même eu. </t>
   </si>
   <si>
-    <t>je peux vous les envoyer une fois que je les recevrai.</t>
-  </si>
-  <si>
     <t>37.174.76.10</t>
   </si>
   <si>
@@ -773,9 +746,6 @@
     <t xml:space="preserve">je pense avoir fait le tour dans les réponses précédentes. </t>
   </si>
   <si>
-    <t>FR0000444275 / FR0013381035 / FR0050000829 / FR0014000QG7 / FR0050000456 / FR0050000449</t>
-  </si>
-  <si>
     <t xml:space="preserve">Il s'est focalisé sur un seul type d'investissement sans prendre en compte ce que je souhaitais. </t>
   </si>
   <si>
@@ -863,9 +833,6 @@
     <t xml:space="preserve">Le conseiller était très impliqué et très attentif à mes besoins </t>
   </si>
   <si>
-    <t>FR0010668145 Lu0406802339 FR0010108977</t>
-  </si>
-  <si>
     <t xml:space="preserve">La conseillère s'est focalisée sur les préférences et l'engagement de son établissement bancaire a savoir... l'épargne engagé. </t>
   </si>
   <si>
@@ -983,9 +950,6 @@
     <t xml:space="preserve">Les produits proposés sont des produits clés en mains recommandés par la banque et supervisé par des experts qui garantissent les droits de l’homme et l’économie verte. </t>
   </si>
   <si>
-    <t>Fr00135353990/Fr0050000456/FR0013381035/FR0050000449/FR0014000QG7/FR0000000085/FR0050000829</t>
-  </si>
-  <si>
     <t>37.167.245.247</t>
   </si>
   <si>
@@ -1049,9 +1013,6 @@
     <t>pas de connaissance poussé a priori sur les produits à me conseiller, m'a dit que ces produits étaient très a la mode et qu'il fallait surffer sur la vague... m'a lâché une info importante, m'a dit que ces produits étaient donc à la mode et que du coup ils avaient reçu une formation spécifique pour ça, puis s'est reprise " Enfin, une formation... disons plutôt qu'ils nous ont expliqué les produits..." m'a parlé aussi de "Lumo", pour investir dans des produits verts en france dont on peut voir le résultat et dire " ah tiens, regarde, cette éolienne j'ai investi dedans"</t>
   </si>
   <si>
-    <t xml:space="preserve">ISR Amundi action france FR0010431015 </t>
-  </si>
-  <si>
     <t>90.92.96.161</t>
   </si>
   <si>
@@ -1079,9 +1040,6 @@
     <t xml:space="preserve">Le conseiller était très sympathique. Il a pourtant négligé d’en savoir plus sur mes besoins et / ou envies. Il me proposait différents produits et je pense que tous étaient purement pour le crédit agricole. Même une fois mon souhait exprimé, il a suivi mes indications mais pas de détails sur ces sujets la, il focalisait plus sur le fait que certains produits allaient me rapporter à défaut d’autres banques françaises. </t>
   </si>
   <si>
-    <t>FR 0000991424(C/D) - FR0013216207(C) - FR0013282514 - FR 0007447881</t>
-  </si>
-  <si>
     <t>77.136.66.8</t>
   </si>
   <si>
@@ -1094,9 +1052,6 @@
     <t>Conseillère très compétente et explication détaillées</t>
   </si>
   <si>
-    <t>FR000707630</t>
-  </si>
-  <si>
     <t>15/06/2023</t>
   </si>
   <si>
@@ -1217,9 +1172,6 @@
     <t>le compte rendu et les propositions seront envoyés par mail... N'a pas une grande connaissance de ses produits, me dirige systématiquement vers l'assurance vie de prime abords . un des produits proposés mentionnait la présence de nestlé, j'ai relevé la non compatibilité avec mes attentes, elle m'a dit qu'elle étudirai la bonne formule à me proposer et me fera une proposition par mail...</t>
   </si>
   <si>
-    <t>etoile action france</t>
-  </si>
-  <si>
     <t>06/06/2023</t>
   </si>
   <si>
@@ -1241,9 +1193,6 @@
     <t>ai du aller a la peche aux information vue la non connaissance des produit du conseillé. une proposition de produit sera envoyé par mail... m'a proposé de prendre rdv avec sa collègue qui a une meilleure connaissance des produits</t>
   </si>
   <si>
-    <t>BNP climate impact</t>
-  </si>
-  <si>
     <t>07/06/2023</t>
   </si>
   <si>
@@ -1262,9 +1211,6 @@
     <t>A essayé de placer le premier produit dont il m’a parlé tout au  long du rdv, avec en prime une  échéance au 8juillet date de  fin  d’inscription pour ce produit, ensuite ce sera l’an prochain... m’a vanté l’engagement total du  groupe dans les produits verts et le développement durable</t>
   </si>
   <si>
-    <t xml:space="preserve">Autofocus. Groupe arkea </t>
-  </si>
-  <si>
     <t>37.166.14.129</t>
   </si>
   <si>
@@ -1283,9 +1229,6 @@
     <t xml:space="preserve">Rdv très intéressant, le conseiller m’a d’abord exposé les différents types de lacements puis m’a demandé mes attentes. Quand je lui ai parlé de mon désir de placement dans l’economie Durable, m’a immediatement parlé des divergentes préférences et une fois mn profil défini, m’a parlé de ses produits en respectant systématiquement mon profil et mes préférences. </t>
   </si>
   <si>
-    <t>Avenir durable FR001400FXG7</t>
-  </si>
-  <si>
     <t>37.167.222.89</t>
   </si>
   <si>
@@ -1343,9 +1286,6 @@
     <t>Bon rendez-vous avec des alternatives et propositions claires</t>
   </si>
   <si>
-    <t>FR001400FXG7; LU0552643339; LU1951227419;LU0914733059; LU1472740767</t>
-  </si>
-  <si>
     <t>12/06/2023</t>
   </si>
   <si>
@@ -1454,9 +1394,6 @@
     <t>m'a dit que des produits devellopement durable étaient à la mode en ce moment et que toutes les banques en proposaient... PAs de connaissance poussée des produits, s'en remet à un rdv avec un conseillé patrimonial si intéressé</t>
   </si>
   <si>
-    <t>CA Oblig Euro FR001400HI80/sélection euro climat FR001400H5K4/sélection france environnement FR001400H8T9</t>
-  </si>
-  <si>
     <t xml:space="preserve">La conseillère à exposée les différentes préférences </t>
   </si>
   <si>
@@ -1686,9 +1623,6 @@
   </si>
   <si>
     <t>q43</t>
-  </si>
-  <si>
-    <t>q44</t>
   </si>
 </sst>
 </file>
@@ -1710,6 +1644,7 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2094,13 +2029,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CD65"/>
+  <dimension ref="A1:CC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="CD1" sqref="CD1:CD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:82" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2132,223 +2069,220 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="BI1" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>550</v>
-      </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>114349449146</v>
       </c>
@@ -2494,7 +2428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>114352899931</v>
       </c>
@@ -2622,7 +2556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>114348971077</v>
       </c>
@@ -2773,11 +2707,8 @@
       <c r="CC4" t="s">
         <v>83</v>
       </c>
-      <c r="CD4" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>114349816310</v>
       </c>
@@ -2791,7 +2722,7 @@
         <v>45119.711574074077</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -2800,7 +2731,7 @@
         <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -2836,22 +2767,22 @@
         <v>53</v>
       </c>
       <c r="AM5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN5" t="s">
         <v>73</v>
       </c>
       <c r="AO5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>88</v>
       </c>
-      <c r="AP5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>89</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>90</v>
       </c>
       <c r="AX5" t="s">
         <v>29</v>
@@ -2866,13 +2797,13 @@
         <v>53</v>
       </c>
       <c r="BB5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC5" t="s">
         <v>77</v>
       </c>
       <c r="BK5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BM5" t="s">
         <v>51</v>
@@ -2890,16 +2821,13 @@
         <v>51</v>
       </c>
       <c r="CA5" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC5" t="s">
         <v>93</v>
       </c>
-      <c r="CC5" t="s">
-        <v>94</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>95</v>
-      </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>114350780096</v>
       </c>
@@ -2913,7 +2841,7 @@
         <v>45119.711180555554</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -2922,7 +2850,7 @@
         <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -2955,7 +2883,7 @@
         <v>19</v>
       </c>
       <c r="AD6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE6" t="s">
         <v>20</v>
@@ -2964,7 +2892,7 @@
         <v>19</v>
       </c>
       <c r="AJ6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s">
         <v>53</v>
@@ -2973,7 +2901,7 @@
         <v>53</v>
       </c>
       <c r="AM6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AN6" t="s">
         <v>73</v>
@@ -2985,10 +2913,10 @@
         <v>41</v>
       </c>
       <c r="AQ6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AT6" t="s">
         <v>25</v>
@@ -3006,13 +2934,13 @@
         <v>41</v>
       </c>
       <c r="BB6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC6" t="s">
         <v>77</v>
       </c>
       <c r="BK6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BM6" t="s">
         <v>51</v>
@@ -3024,16 +2952,16 @@
         <v>41</v>
       </c>
       <c r="BP6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT6" t="s">
         <v>104</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>105</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>106</v>
       </c>
       <c r="BV6" t="s">
         <v>67</v>
@@ -3054,13 +2982,10 @@
         <v>41</v>
       </c>
       <c r="CC6" t="s">
-        <v>107</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>114354583749</v>
       </c>
@@ -3074,7 +2999,7 @@
         <v>45119.709837962961</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -3083,13 +3008,13 @@
         <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
         <v>38</v>
@@ -3122,22 +3047,22 @@
         <v>53</v>
       </c>
       <c r="AM7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AN7" t="s">
         <v>73</v>
       </c>
       <c r="AO7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AP7" t="s">
         <v>53</v>
       </c>
       <c r="AQ7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AR7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AX7" t="s">
         <v>29</v>
@@ -3158,7 +3083,7 @@
         <v>77</v>
       </c>
       <c r="BK7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BM7" t="s">
         <v>82</v>
@@ -3173,13 +3098,13 @@
         <v>41</v>
       </c>
       <c r="BU7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="BV7" t="s">
         <v>19</v>
       </c>
       <c r="BW7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="BY7" t="s">
         <v>58</v>
@@ -3188,13 +3113,13 @@
         <v>82</v>
       </c>
       <c r="CA7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CC7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>114364529709</v>
       </c>
@@ -3208,7 +3133,7 @@
         <v>45118.703912037039</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -3217,7 +3142,7 @@
         <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M8">
         <v>5</v>
@@ -3250,7 +3175,7 @@
         <v>16</v>
       </c>
       <c r="AD8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AF8" t="s">
         <v>21</v>
@@ -3262,19 +3187,19 @@
         <v>53</v>
       </c>
       <c r="AM8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AN8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AO8" t="s">
         <v>45</v>
       </c>
       <c r="AQ8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AU8" t="s">
         <v>26</v>
@@ -3295,13 +3220,13 @@
         <v>19</v>
       </c>
       <c r="BD8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="BG8" t="s">
         <v>32</v>
       </c>
       <c r="BJ8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BN8" t="s">
         <v>41</v>
@@ -3310,10 +3235,10 @@
         <v>41</v>
       </c>
       <c r="BR8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BV8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="BX8" t="s">
         <v>58</v>
@@ -3331,13 +3256,10 @@
         <v>53</v>
       </c>
       <c r="CC8" t="s">
-        <v>127</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>114364332149</v>
       </c>
@@ -3351,7 +3273,7 @@
         <v>45118.507708333331</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -3360,7 +3282,7 @@
         <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -3387,13 +3309,13 @@
         <v>19</v>
       </c>
       <c r="AD9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AI9" t="s">
         <v>19</v>
       </c>
       <c r="AJ9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s">
         <v>53</v>
@@ -3402,10 +3324,10 @@
         <v>53</v>
       </c>
       <c r="AM9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AN9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO9" t="s">
         <v>45</v>
@@ -3414,7 +3336,7 @@
         <v>75</v>
       </c>
       <c r="AR9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AX9" t="s">
         <v>29</v>
@@ -3432,7 +3354,7 @@
         <v>19</v>
       </c>
       <c r="BD9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="BE9" t="s">
         <v>30</v>
@@ -3441,7 +3363,7 @@
         <v>32</v>
       </c>
       <c r="BJ9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="BM9" t="s">
         <v>51</v>
@@ -3453,13 +3375,13 @@
         <v>41</v>
       </c>
       <c r="BR9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BV9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX9" t="s">
         <v>58</v>
@@ -3477,13 +3399,10 @@
         <v>53</v>
       </c>
       <c r="CC9" t="s">
-        <v>138</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>114363838275</v>
       </c>
@@ -3497,7 +3416,7 @@
         <v>45117.855787037035</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -3506,7 +3425,7 @@
         <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -3542,13 +3461,13 @@
         <v>53</v>
       </c>
       <c r="AM10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AN10" t="s">
         <v>73</v>
       </c>
       <c r="AO10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP10" t="s">
         <v>41</v>
@@ -3569,7 +3488,7 @@
         <v>53</v>
       </c>
       <c r="BB10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC10" t="s">
         <v>77</v>
@@ -3590,16 +3509,16 @@
         <v>51</v>
       </c>
       <c r="CA10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB10" t="s">
         <v>41</v>
       </c>
       <c r="CC10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>114345685860</v>
       </c>
@@ -3613,7 +3532,7 @@
         <v>45117.749791666669</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3622,13 +3541,13 @@
         <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M11">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
         <v>38</v>
@@ -3661,10 +3580,10 @@
         <v>53</v>
       </c>
       <c r="AM11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AN11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AO11" t="s">
         <v>74</v>
@@ -3676,7 +3595,7 @@
         <v>75</v>
       </c>
       <c r="AR11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AX11" t="s">
         <v>29</v>
@@ -3697,10 +3616,10 @@
         <v>19</v>
       </c>
       <c r="BD11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="BL11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="BN11" t="s">
         <v>41</v>
@@ -3709,13 +3628,13 @@
         <v>53</v>
       </c>
       <c r="BR11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BT11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="BV11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX11" t="s">
         <v>53</v>
@@ -3727,16 +3646,16 @@
         <v>82</v>
       </c>
       <c r="CA11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CB11" t="s">
         <v>53</v>
       </c>
       <c r="CC11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>114361232912</v>
       </c>
@@ -3750,7 +3669,7 @@
         <v>45113.831192129626</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -3759,7 +3678,7 @@
         <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -3795,13 +3714,13 @@
         <v>53</v>
       </c>
       <c r="AM12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AN12" t="s">
         <v>73</v>
       </c>
       <c r="AO12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP12" t="s">
         <v>41</v>
@@ -3810,7 +3729,7 @@
         <v>75</v>
       </c>
       <c r="AR12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AX12" t="s">
         <v>29</v>
@@ -3825,7 +3744,7 @@
         <v>53</v>
       </c>
       <c r="BB12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC12" t="s">
         <v>77</v>
@@ -3840,13 +3759,13 @@
         <v>41</v>
       </c>
       <c r="CA12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CC12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>114360235938</v>
       </c>
@@ -3860,7 +3779,7 @@
         <v>45112.679085648146</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -3869,13 +3788,13 @@
         <v>61</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
         <v>63</v>
@@ -3905,22 +3824,22 @@
         <v>53</v>
       </c>
       <c r="AM13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AN13" t="s">
         <v>73</v>
       </c>
       <c r="AO13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>88</v>
       </c>
-      <c r="AP13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>89</v>
-      </c>
       <c r="AR13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AX13" t="s">
         <v>29</v>
@@ -3935,13 +3854,13 @@
         <v>53</v>
       </c>
       <c r="BB13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC13" t="s">
         <v>77</v>
       </c>
       <c r="BK13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="BM13" t="s">
         <v>82</v>
@@ -3956,16 +3875,13 @@
         <v>82</v>
       </c>
       <c r="CA13" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC13" t="s">
         <v>93</v>
       </c>
-      <c r="CC13" t="s">
-        <v>94</v>
-      </c>
-      <c r="CD13" t="s">
-        <v>163</v>
-      </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>114360227085</v>
       </c>
@@ -3979,7 +3895,7 @@
         <v>45112.672881944447</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -3988,7 +3904,7 @@
         <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M14">
         <v>3</v>
@@ -4024,13 +3940,13 @@
         <v>53</v>
       </c>
       <c r="AM14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AN14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AP14" t="s">
         <v>41</v>
@@ -4039,7 +3955,7 @@
         <v>75</v>
       </c>
       <c r="AR14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AY14" t="s">
         <v>53</v>
@@ -4051,7 +3967,7 @@
         <v>53</v>
       </c>
       <c r="BB14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC14" t="s">
         <v>77</v>
@@ -4060,7 +3976,7 @@
         <v>19</v>
       </c>
       <c r="BJ14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="BQ14" t="s">
         <v>41</v>
@@ -4069,16 +3985,16 @@
         <v>51</v>
       </c>
       <c r="CA14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB14" t="s">
         <v>41</v>
       </c>
       <c r="CC14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>114359453496</v>
       </c>
@@ -4092,7 +4008,7 @@
         <v>45112.594444444447</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -4101,7 +4017,7 @@
         <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M15">
         <v>6</v>
@@ -4131,13 +4047,13 @@
         <v>16</v>
       </c>
       <c r="AD15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AF15" t="s">
         <v>21</v>
       </c>
       <c r="AJ15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AK15" t="s">
         <v>53</v>
@@ -4146,13 +4062,13 @@
         <v>53</v>
       </c>
       <c r="AM15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AN15" t="s">
         <v>73</v>
       </c>
       <c r="AO15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AP15" t="s">
         <v>53</v>
@@ -4161,7 +4077,7 @@
         <v>75</v>
       </c>
       <c r="AR15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AX15" t="s">
         <v>29</v>
@@ -4176,16 +4092,16 @@
         <v>41</v>
       </c>
       <c r="BB15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="BC15" t="s">
         <v>19</v>
       </c>
       <c r="BD15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="BK15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="BM15" t="s">
         <v>82</v>
@@ -4197,13 +4113,13 @@
         <v>41</v>
       </c>
       <c r="BR15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BV15" t="s">
         <v>19</v>
       </c>
       <c r="BW15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="BY15" t="s">
         <v>41</v>
@@ -4212,16 +4128,13 @@
         <v>82</v>
       </c>
       <c r="CA15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CC15" t="s">
-        <v>176</v>
-      </c>
-      <c r="CD15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>114359795420</v>
       </c>
@@ -4235,7 +4148,7 @@
         <v>45111.952997685185</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J16">
         <v>3</v>
@@ -4244,7 +4157,7 @@
         <v>70</v>
       </c>
       <c r="L16" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M16">
         <v>5</v>
@@ -4280,22 +4193,22 @@
         <v>53</v>
       </c>
       <c r="AM16" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AN16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AO16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>88</v>
       </c>
-      <c r="AP16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>89</v>
-      </c>
       <c r="AR16" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AX16" t="s">
         <v>29</v>
@@ -4310,7 +4223,7 @@
         <v>53</v>
       </c>
       <c r="BB16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC16" t="s">
         <v>77</v>
@@ -4319,7 +4232,7 @@
         <v>19</v>
       </c>
       <c r="BJ16" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="BQ16" t="s">
         <v>41</v>
@@ -4328,10 +4241,10 @@
         <v>51</v>
       </c>
       <c r="CA16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>114349819990</v>
       </c>
@@ -4345,7 +4258,7 @@
         <v>45111.723541666666</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -4354,13 +4267,13 @@
         <v>61</v>
       </c>
       <c r="L17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17">
         <v>6</v>
       </c>
       <c r="N17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O17" t="s">
         <v>38</v>
@@ -4390,22 +4303,22 @@
         <v>53</v>
       </c>
       <c r="AM17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AN17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AO17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP17" t="s">
         <v>41</v>
       </c>
       <c r="AQ17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AU17" t="s">
         <v>26</v>
@@ -4420,7 +4333,7 @@
         <v>53</v>
       </c>
       <c r="BB17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC17" t="s">
         <v>77</v>
@@ -4441,16 +4354,13 @@
         <v>51</v>
       </c>
       <c r="CA17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CC17" t="s">
-        <v>185</v>
-      </c>
-      <c r="CD17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>114358445022</v>
       </c>
@@ -4464,7 +4374,7 @@
         <v>45109.83326388889</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -4473,13 +4383,13 @@
         <v>70</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M18">
         <v>6</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O18" t="s">
         <v>38</v>
@@ -4509,22 +4419,22 @@
         <v>53</v>
       </c>
       <c r="AM18" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AO18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>88</v>
       </c>
-      <c r="AP18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>89</v>
-      </c>
       <c r="AR18" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AX18" t="s">
         <v>29</v>
@@ -4539,7 +4449,7 @@
         <v>53</v>
       </c>
       <c r="BB18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC18" t="s">
         <v>77</v>
@@ -4548,19 +4458,19 @@
         <v>19</v>
       </c>
       <c r="BJ18" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="BQ18" t="s">
         <v>41</v>
       </c>
       <c r="CA18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CC18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>114357203544</v>
       </c>
@@ -4583,7 +4493,7 @@
         <v>70</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -4619,22 +4529,22 @@
         <v>53</v>
       </c>
       <c r="AM19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AN19" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AO19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP19" t="s">
         <v>53</v>
       </c>
       <c r="AQ19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AS19" t="s">
         <v>24</v>
@@ -4661,7 +4571,7 @@
         <v>41</v>
       </c>
       <c r="BB19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="BC19" t="s">
         <v>77</v>
@@ -4679,22 +4589,22 @@
         <v>41</v>
       </c>
       <c r="BP19" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="BQ19" t="s">
         <v>53</v>
       </c>
       <c r="BR19" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="BS19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="BU19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="BV19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX19" t="s">
         <v>53</v>
@@ -4706,16 +4616,16 @@
         <v>82</v>
       </c>
       <c r="CA19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB19" t="s">
         <v>41</v>
       </c>
       <c r="CC19" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>114357192046</v>
       </c>
@@ -4738,7 +4648,7 @@
         <v>70</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M20">
         <v>4</v>
@@ -4771,7 +4681,7 @@
         <v>41</v>
       </c>
       <c r="AM20" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AN20" t="s">
         <v>44</v>
@@ -4783,10 +4693,10 @@
         <v>41</v>
       </c>
       <c r="AQ20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AR20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AS20" t="s">
         <v>24</v>
@@ -4816,7 +4726,7 @@
         <v>19</v>
       </c>
       <c r="BD20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="BG20" t="s">
         <v>32</v>
@@ -4828,7 +4738,7 @@
         <v>54</v>
       </c>
       <c r="BS20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="BV20" t="s">
         <v>67</v>
@@ -4849,10 +4759,10 @@
         <v>41</v>
       </c>
       <c r="CC20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>114356268783</v>
       </c>
@@ -4866,7 +4776,7 @@
         <v>45106.467152777775</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -4875,7 +4785,7 @@
         <v>61</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -4905,10 +4815,10 @@
         <v>23</v>
       </c>
       <c r="AM21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AN21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO21" t="s">
         <v>45</v>
@@ -4920,7 +4830,7 @@
         <v>75</v>
       </c>
       <c r="AR21" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AX21" t="s">
         <v>29</v>
@@ -4941,7 +4851,7 @@
         <v>77</v>
       </c>
       <c r="BK21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="BM21" t="s">
         <v>82</v>
@@ -4953,13 +4863,13 @@
         <v>41</v>
       </c>
       <c r="BU21" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BV21" t="s">
         <v>19</v>
       </c>
       <c r="BW21" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="BX21" t="s">
         <v>58</v>
@@ -4971,16 +4881,13 @@
         <v>82</v>
       </c>
       <c r="CA21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CC21" t="s">
-        <v>211</v>
-      </c>
-      <c r="CD21" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>114355653773</v>
       </c>
@@ -4994,7 +4901,7 @@
         <v>45105.785393518519</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -5003,13 +4910,13 @@
         <v>70</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M22">
         <v>7</v>
       </c>
       <c r="N22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O22" t="s">
         <v>63</v>
@@ -5039,13 +4946,13 @@
         <v>41</v>
       </c>
       <c r="AM22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AN22" t="s">
         <v>73</v>
       </c>
       <c r="AO22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AP22" t="s">
         <v>41</v>
@@ -5054,7 +4961,7 @@
         <v>75</v>
       </c>
       <c r="AR22" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AS22" t="s">
         <v>24</v>
@@ -5069,13 +4976,13 @@
         <v>53</v>
       </c>
       <c r="BB22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC22" t="s">
         <v>19</v>
       </c>
       <c r="BD22" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="BE22" t="s">
         <v>30</v>
@@ -5090,7 +4997,7 @@
         <v>54</v>
       </c>
       <c r="BV22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="BX22" t="s">
         <v>41</v>
@@ -5099,19 +5006,19 @@
         <v>41</v>
       </c>
       <c r="BZ22" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="CA22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB22" t="s">
         <v>41</v>
       </c>
       <c r="CC22" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>114355635659</v>
       </c>
@@ -5125,7 +5032,7 @@
         <v>45105.771458333336</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -5134,7 +5041,7 @@
         <v>70</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M23">
         <v>5</v>
@@ -5170,13 +5077,13 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AN23" t="s">
         <v>73</v>
       </c>
       <c r="AO23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP23" t="s">
         <v>41</v>
@@ -5185,7 +5092,7 @@
         <v>75</v>
       </c>
       <c r="AR23" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AX23" t="s">
         <v>29</v>
@@ -5200,7 +5107,7 @@
         <v>41</v>
       </c>
       <c r="BB23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC23" t="s">
         <v>77</v>
@@ -5212,10 +5119,10 @@
         <v>53</v>
       </c>
       <c r="BR23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS23" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="BX23" t="s">
         <v>53</v>
@@ -5227,16 +5134,16 @@
         <v>82</v>
       </c>
       <c r="CA23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CB23" t="s">
         <v>53</v>
       </c>
       <c r="CC23" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>114355617373</v>
       </c>
@@ -5250,7 +5157,7 @@
         <v>45105.759837962964</v>
       </c>
       <c r="E24" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -5259,7 +5166,7 @@
         <v>70</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M24">
         <v>3</v>
@@ -5322,22 +5229,22 @@
         <v>53</v>
       </c>
       <c r="AM24" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="AN24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>88</v>
       </c>
-      <c r="AP24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>89</v>
-      </c>
       <c r="AR24" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AX24" t="s">
         <v>29</v>
@@ -5364,7 +5271,7 @@
         <v>41</v>
       </c>
       <c r="BR24" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="BX24" t="s">
         <v>53</v>
@@ -5376,16 +5283,16 @@
         <v>82</v>
       </c>
       <c r="CA24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CB24" t="s">
         <v>53</v>
       </c>
       <c r="CC24" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>114355521827</v>
       </c>
@@ -5399,7 +5306,7 @@
         <v>45105.685902777775</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -5408,7 +5315,7 @@
         <v>61</v>
       </c>
       <c r="L25" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M25">
         <v>5</v>
@@ -5447,10 +5354,10 @@
         <v>53</v>
       </c>
       <c r="AM25" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AO25" t="s">
         <v>45</v>
@@ -5462,7 +5369,7 @@
         <v>46</v>
       </c>
       <c r="AR25" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AS25" t="s">
         <v>24</v>
@@ -5486,10 +5393,10 @@
         <v>19</v>
       </c>
       <c r="BD25" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="BK25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="BM25" t="s">
         <v>51</v>
@@ -5501,19 +5408,19 @@
         <v>41</v>
       </c>
       <c r="BP25" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="BQ25" t="s">
         <v>41</v>
       </c>
       <c r="BU25" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="BV25" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="BW25" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="BX25" t="s">
         <v>41</v>
@@ -5525,16 +5432,16 @@
         <v>51</v>
       </c>
       <c r="CA25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB25" t="s">
         <v>53</v>
       </c>
       <c r="CC25" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>114355350650</v>
       </c>
@@ -5548,7 +5455,7 @@
         <v>45105.523530092592</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -5557,7 +5464,7 @@
         <v>61</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M26">
         <v>7</v>
@@ -5569,7 +5476,7 @@
         <v>63</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Q26" t="s">
         <v>53</v>
@@ -5587,7 +5494,7 @@
         <v>19</v>
       </c>
       <c r="AD26" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s">
         <v>21</v>
@@ -5599,10 +5506,10 @@
         <v>53</v>
       </c>
       <c r="AM26" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AN26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO26" t="s">
         <v>45</v>
@@ -5611,10 +5518,10 @@
         <v>41</v>
       </c>
       <c r="AQ26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR26" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="AS26" t="s">
         <v>24</v>
@@ -5632,10 +5539,10 @@
         <v>19</v>
       </c>
       <c r="BD26" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="BK26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="BM26" t="s">
         <v>82</v>
@@ -5647,19 +5554,19 @@
         <v>41</v>
       </c>
       <c r="BP26" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="BQ26" t="s">
         <v>41</v>
       </c>
       <c r="BR26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BV26" t="s">
         <v>19</v>
       </c>
       <c r="BW26" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="BX26" t="s">
         <v>81</v>
@@ -5677,13 +5584,10 @@
         <v>53</v>
       </c>
       <c r="CC26" t="s">
-        <v>244</v>
-      </c>
-      <c r="CD26" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>114355272062</v>
       </c>
@@ -5706,7 +5610,7 @@
         <v>61</v>
       </c>
       <c r="L27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M27">
         <v>3</v>
@@ -5742,22 +5646,22 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AN27" t="s">
         <v>44</v>
       </c>
       <c r="AO27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP27" t="s">
         <v>41</v>
       </c>
       <c r="AQ27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR27" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="AS27" t="s">
         <v>24</v>
@@ -5778,7 +5682,7 @@
         <v>77</v>
       </c>
       <c r="BK27" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="BM27" t="s">
         <v>51</v>
@@ -5790,19 +5694,19 @@
         <v>41</v>
       </c>
       <c r="BP27" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="BQ27" t="s">
         <v>53</v>
       </c>
       <c r="BR27" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="BU27" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BV27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="BX27" t="s">
         <v>58</v>
@@ -5820,10 +5724,10 @@
         <v>41</v>
       </c>
       <c r="CC27" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>114354990712</v>
       </c>
@@ -5846,7 +5750,7 @@
         <v>61</v>
       </c>
       <c r="L28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M28">
         <v>6</v>
@@ -5900,22 +5804,22 @@
         <v>53</v>
       </c>
       <c r="AM28" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AN28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AO28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>88</v>
       </c>
-      <c r="AP28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>89</v>
-      </c>
       <c r="AR28" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AX28" t="s">
         <v>29</v>
@@ -5936,7 +5840,7 @@
         <v>77</v>
       </c>
       <c r="BK28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="BM28" t="s">
         <v>82</v>
@@ -5951,16 +5855,16 @@
         <v>53</v>
       </c>
       <c r="BR28" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="BT28" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="BV28" t="s">
         <v>19</v>
       </c>
       <c r="BW28" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="BX28" t="s">
         <v>53</v>
@@ -5969,19 +5873,19 @@
         <v>41</v>
       </c>
       <c r="BZ28" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="CA28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB28" t="s">
         <v>53</v>
       </c>
       <c r="CC28" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>114352396550</v>
       </c>
@@ -6004,7 +5908,7 @@
         <v>61</v>
       </c>
       <c r="L29" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M29">
         <v>3</v>
@@ -6040,7 +5944,7 @@
         <v>41</v>
       </c>
       <c r="AM29" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AN29" t="s">
         <v>44</v>
@@ -6052,10 +5956,10 @@
         <v>41</v>
       </c>
       <c r="AQ29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR29" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="AU29" t="s">
         <v>26</v>
@@ -6082,7 +5986,7 @@
         <v>19</v>
       </c>
       <c r="BD29" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BM29" t="s">
         <v>51</v>
@@ -6094,7 +5998,7 @@
         <v>41</v>
       </c>
       <c r="BP29" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="BQ29" t="s">
         <v>53</v>
@@ -6118,10 +6022,10 @@
         <v>41</v>
       </c>
       <c r="CC29" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>114352392880</v>
       </c>
@@ -6144,13 +6048,13 @@
         <v>61</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M30">
         <v>6</v>
       </c>
       <c r="N30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O30" t="s">
         <v>63</v>
@@ -6183,22 +6087,22 @@
         <v>53</v>
       </c>
       <c r="AM30" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AN30" t="s">
         <v>73</v>
       </c>
       <c r="AO30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ30" t="s">
         <v>88</v>
       </c>
-      <c r="AP30" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>89</v>
-      </c>
       <c r="AR30" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AX30" t="s">
         <v>29</v>
@@ -6213,16 +6117,16 @@
         <v>41</v>
       </c>
       <c r="BB30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC30" t="s">
         <v>19</v>
       </c>
       <c r="BD30" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="BK30" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="BM30" t="s">
         <v>82</v>
@@ -6237,13 +6141,13 @@
         <v>53</v>
       </c>
       <c r="BR30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BT30" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="BV30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX30" t="s">
         <v>41</v>
@@ -6255,16 +6159,16 @@
         <v>82</v>
       </c>
       <c r="CA30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB30" t="s">
         <v>41</v>
       </c>
       <c r="CC30" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>114352387890</v>
       </c>
@@ -6287,13 +6191,13 @@
         <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M31">
         <v>7</v>
       </c>
       <c r="N31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O31" t="s">
         <v>38</v>
@@ -6326,19 +6230,19 @@
         <v>53</v>
       </c>
       <c r="AN31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ31" t="s">
         <v>88</v>
       </c>
-      <c r="AP31" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>89</v>
-      </c>
       <c r="AR31" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="AX31" t="s">
         <v>29</v>
@@ -6377,10 +6281,10 @@
         <v>54</v>
       </c>
       <c r="BT31" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="BV31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX31" t="s">
         <v>53</v>
@@ -6392,16 +6296,16 @@
         <v>82</v>
       </c>
       <c r="CA31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB31" t="s">
         <v>41</v>
       </c>
       <c r="CC31" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>114351708652</v>
       </c>
@@ -6415,7 +6319,7 @@
         <v>45100.548564814817</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -6424,13 +6328,13 @@
         <v>70</v>
       </c>
       <c r="L32" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M32">
         <v>6</v>
       </c>
       <c r="N32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O32" t="s">
         <v>38</v>
@@ -6460,22 +6364,22 @@
         <v>53</v>
       </c>
       <c r="AM32" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AN32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AO32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ32" t="s">
         <v>88</v>
       </c>
-      <c r="AP32" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>89</v>
-      </c>
       <c r="AR32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AX32" t="s">
         <v>29</v>
@@ -6490,7 +6394,7 @@
         <v>53</v>
       </c>
       <c r="BB32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC32" t="s">
         <v>77</v>
@@ -6499,7 +6403,7 @@
         <v>19</v>
       </c>
       <c r="BJ32" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="BM32" t="s">
         <v>51</v>
@@ -6514,16 +6418,13 @@
         <v>51</v>
       </c>
       <c r="CA32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CC32" t="s">
-        <v>274</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>114351304349</v>
       </c>
@@ -6546,7 +6447,7 @@
         <v>61</v>
       </c>
       <c r="L33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M33">
         <v>5</v>
@@ -6582,22 +6483,22 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AN33" t="s">
         <v>73</v>
       </c>
       <c r="AO33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ33" t="s">
         <v>88</v>
       </c>
-      <c r="AP33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>89</v>
-      </c>
       <c r="AR33" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="AX33" t="s">
         <v>29</v>
@@ -6618,16 +6519,16 @@
         <v>19</v>
       </c>
       <c r="BD33" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="BK33" t="s">
         <v>19</v>
       </c>
       <c r="BL33" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="BM33" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="BN33" t="s">
         <v>53</v>
@@ -6639,10 +6540,10 @@
         <v>53</v>
       </c>
       <c r="BR33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BT33" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="BX33" t="s">
         <v>58</v>
@@ -6651,19 +6552,19 @@
         <v>58</v>
       </c>
       <c r="BZ33" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="CA33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB33" t="s">
         <v>53</v>
       </c>
       <c r="CC33" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>114350926039</v>
       </c>
@@ -6677,7 +6578,7 @@
         <v>45099.715787037036</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J34">
         <v>4</v>
@@ -6686,7 +6587,7 @@
         <v>61</v>
       </c>
       <c r="L34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M34">
         <v>6</v>
@@ -6722,22 +6623,22 @@
         <v>53</v>
       </c>
       <c r="AM34" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="AN34" t="s">
         <v>73</v>
       </c>
       <c r="AO34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AP34" t="s">
         <v>41</v>
       </c>
       <c r="AQ34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR34" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="AS34" t="s">
         <v>24</v>
@@ -6767,10 +6668,10 @@
         <v>19</v>
       </c>
       <c r="BD34" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="BK34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="BM34" t="s">
         <v>51</v>
@@ -6782,16 +6683,16 @@
         <v>53</v>
       </c>
       <c r="BT34" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="BU34" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="BV34" t="s">
         <v>19</v>
       </c>
       <c r="BW34" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="BX34" t="s">
         <v>53</v>
@@ -6809,10 +6710,10 @@
         <v>41</v>
       </c>
       <c r="CC34" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>114349633787</v>
       </c>
@@ -6841,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O35" t="s">
         <v>38</v>
@@ -6871,13 +6772,13 @@
         <v>53</v>
       </c>
       <c r="AM35" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="AN35" t="s">
         <v>73</v>
       </c>
       <c r="AO35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP35" t="s">
         <v>53</v>
@@ -6886,7 +6787,7 @@
         <v>75</v>
       </c>
       <c r="AR35" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AX35" t="s">
         <v>29</v>
@@ -6901,19 +6802,19 @@
         <v>41</v>
       </c>
       <c r="BB35" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="BC35" t="s">
         <v>19</v>
       </c>
       <c r="BD35" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="BK35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BM35" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="BN35" t="s">
         <v>53</v>
@@ -6925,13 +6826,13 @@
         <v>53</v>
       </c>
       <c r="BR35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BT35" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="BV35" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX35" t="s">
         <v>58</v>
@@ -6940,19 +6841,19 @@
         <v>41</v>
       </c>
       <c r="BZ35" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="CA35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB35" t="s">
         <v>41</v>
       </c>
       <c r="CC35" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>114349208381</v>
       </c>
@@ -6966,7 +6867,7 @@
         <v>45097.850347222222</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -6981,7 +6882,7 @@
         <v>7</v>
       </c>
       <c r="N36" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O36" t="s">
         <v>38</v>
@@ -7011,22 +6912,22 @@
         <v>53</v>
       </c>
       <c r="AM36" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AN36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AO36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ36" t="s">
         <v>88</v>
       </c>
-      <c r="AP36" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>89</v>
-      </c>
       <c r="AR36" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AX36" t="s">
         <v>29</v>
@@ -7041,13 +6942,13 @@
         <v>53</v>
       </c>
       <c r="BB36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC36" t="s">
         <v>77</v>
       </c>
       <c r="BK36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BM36" t="s">
         <v>82</v>
@@ -7062,19 +6963,19 @@
         <v>53</v>
       </c>
       <c r="BR36" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="BZ36" t="s">
         <v>82</v>
       </c>
       <c r="CA36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CC36" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>114349204051</v>
       </c>
@@ -7088,7 +6989,7 @@
         <v>45097.846608796295</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -7136,10 +7037,10 @@
         <v>53</v>
       </c>
       <c r="AN37" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP37" t="s">
         <v>41</v>
@@ -7160,13 +7061,13 @@
         <v>53</v>
       </c>
       <c r="BB37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC37" t="s">
         <v>77</v>
       </c>
       <c r="BK37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BM37" t="s">
         <v>51</v>
@@ -7181,19 +7082,19 @@
         <v>41</v>
       </c>
       <c r="BR37" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="BZ37" t="s">
         <v>51</v>
       </c>
       <c r="CA37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CC37" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>114349145394</v>
       </c>
@@ -7207,7 +7108,7 @@
         <v>45097.799212962964</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -7222,7 +7123,7 @@
         <v>6</v>
       </c>
       <c r="N38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O38" t="s">
         <v>63</v>
@@ -7252,22 +7153,22 @@
         <v>53</v>
       </c>
       <c r="AM38" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="AN38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AO38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ38" t="s">
         <v>88</v>
       </c>
-      <c r="AP38" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>89</v>
-      </c>
       <c r="AR38" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AX38" t="s">
         <v>29</v>
@@ -7282,13 +7183,13 @@
         <v>53</v>
       </c>
       <c r="BB38" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="BC38" t="s">
         <v>77</v>
       </c>
       <c r="BK38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BM38" t="s">
         <v>82</v>
@@ -7303,7 +7204,7 @@
         <v>41</v>
       </c>
       <c r="BR38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BX38" t="s">
         <v>58</v>
@@ -7315,13 +7216,13 @@
         <v>82</v>
       </c>
       <c r="CA38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CC38" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>114349026834</v>
       </c>
@@ -7335,7 +7236,7 @@
         <v>45097.716006944444</v>
       </c>
       <c r="E39" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -7380,7 +7281,7 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AN39" t="s">
         <v>44</v>
@@ -7395,7 +7296,7 @@
         <v>46</v>
       </c>
       <c r="AR39" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="AS39" t="s">
         <v>24</v>
@@ -7422,22 +7323,22 @@
         <v>53</v>
       </c>
       <c r="BB39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC39" t="s">
         <v>77</v>
       </c>
       <c r="BD39" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="BI39" t="s">
         <v>19</v>
       </c>
       <c r="BJ39" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="BM39" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="BN39" t="s">
         <v>41</v>
@@ -7446,19 +7347,19 @@
         <v>41</v>
       </c>
       <c r="BP39" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="BQ39" t="s">
         <v>53</v>
       </c>
       <c r="BR39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BS39" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="BU39" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="BV39" t="s">
         <v>57</v>
@@ -7470,19 +7371,19 @@
         <v>53</v>
       </c>
       <c r="BZ39" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="CA39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CB39" t="s">
         <v>41</v>
       </c>
       <c r="CC39" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>114348954416</v>
       </c>
@@ -7496,7 +7397,7 @@
         <v>45097.662962962961</v>
       </c>
       <c r="E40" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J40">
         <v>5</v>
@@ -7544,10 +7445,10 @@
         <v>53</v>
       </c>
       <c r="AM40" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AN40" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AO40" t="s">
         <v>45</v>
@@ -7556,10 +7457,10 @@
         <v>41</v>
       </c>
       <c r="AQ40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR40" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="AS40" t="s">
         <v>24</v>
@@ -7577,7 +7478,7 @@
         <v>53</v>
       </c>
       <c r="BB40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC40" t="s">
         <v>77</v>
@@ -7595,13 +7496,13 @@
         <v>53</v>
       </c>
       <c r="BR40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS40" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="BV40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="BX40" t="s">
         <v>81</v>
@@ -7613,19 +7514,16 @@
         <v>82</v>
       </c>
       <c r="CA40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CB40" t="s">
         <v>53</v>
       </c>
       <c r="CC40" t="s">
-        <v>314</v>
-      </c>
-      <c r="CD40" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>114347616575</v>
       </c>
@@ -7639,7 +7537,7 @@
         <v>45096.151203703703</v>
       </c>
       <c r="E41" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -7648,13 +7546,13 @@
         <v>61</v>
       </c>
       <c r="L41" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="M41">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O41" t="s">
         <v>63</v>
@@ -7696,10 +7594,10 @@
         <v>53</v>
       </c>
       <c r="AM41" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="AN41" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AO41" t="s">
         <v>74</v>
@@ -7708,10 +7606,10 @@
         <v>53</v>
       </c>
       <c r="AQ41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AR41" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="AX41" t="s">
         <v>29</v>
@@ -7726,7 +7624,7 @@
         <v>53</v>
       </c>
       <c r="BB41" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="BC41" t="s">
         <v>77</v>
@@ -7747,13 +7645,13 @@
         <v>41</v>
       </c>
       <c r="BR41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BT41" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="BV41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="BX41" t="s">
         <v>53</v>
@@ -7765,16 +7663,16 @@
         <v>82</v>
       </c>
       <c r="CA41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB41" t="s">
         <v>41</v>
       </c>
       <c r="CC41" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>114347604477</v>
       </c>
@@ -7788,7 +7686,7 @@
         <v>45096.139293981483</v>
       </c>
       <c r="E42" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -7797,7 +7695,7 @@
         <v>61</v>
       </c>
       <c r="L42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M42">
         <v>2</v>
@@ -7809,7 +7707,7 @@
         <v>38</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Q42" t="s">
         <v>40</v>
@@ -7833,10 +7731,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AN42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AO42" t="s">
         <v>45</v>
@@ -7845,10 +7743,10 @@
         <v>41</v>
       </c>
       <c r="AQ42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR42" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="AS42" t="s">
         <v>24</v>
@@ -7875,7 +7773,7 @@
         <v>19</v>
       </c>
       <c r="BD42" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BK42" t="s">
         <v>50</v>
@@ -7890,7 +7788,7 @@
         <v>41</v>
       </c>
       <c r="BP42" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="BQ42" t="s">
         <v>41</v>
@@ -7899,10 +7797,10 @@
         <v>54</v>
       </c>
       <c r="BT42" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="BU42" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="BV42" t="s">
         <v>57</v>
@@ -7917,16 +7815,16 @@
         <v>82</v>
       </c>
       <c r="CA42" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB42" t="s">
         <v>41</v>
       </c>
       <c r="CC42" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>114346141604</v>
       </c>
@@ -7940,7 +7838,7 @@
         <v>45093.514560185184</v>
       </c>
       <c r="E43" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -7949,13 +7847,13 @@
         <v>70</v>
       </c>
       <c r="L43" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M43">
         <v>7</v>
       </c>
       <c r="N43" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O43" t="s">
         <v>63</v>
@@ -7979,7 +7877,7 @@
         <v>19</v>
       </c>
       <c r="AD43" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="AF43" t="s">
         <v>21</v>
@@ -7994,13 +7892,13 @@
         <v>53</v>
       </c>
       <c r="AM43" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="AN43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP43" t="s">
         <v>41</v>
@@ -8009,7 +7907,7 @@
         <v>46</v>
       </c>
       <c r="AR43" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AS43" t="s">
         <v>24</v>
@@ -8042,7 +7940,7 @@
         <v>41</v>
       </c>
       <c r="BP43" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="BQ43" t="s">
         <v>53</v>
@@ -8051,10 +7949,10 @@
         <v>54</v>
       </c>
       <c r="BS43" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="BU43" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="BV43" t="s">
         <v>67</v>
@@ -8075,13 +7973,10 @@
         <v>41</v>
       </c>
       <c r="CC43" t="s">
-        <v>336</v>
-      </c>
-      <c r="CD43" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>114346125867</v>
       </c>
@@ -8095,7 +7990,7 @@
         <v>45093.509050925924</v>
       </c>
       <c r="E44" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="J44">
         <v>4</v>
@@ -8104,7 +7999,7 @@
         <v>61</v>
       </c>
       <c r="L44" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M44">
         <v>2</v>
@@ -8116,7 +8011,7 @@
         <v>38</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Q44" t="s">
         <v>40</v>
@@ -8134,7 +8029,7 @@
         <v>19</v>
       </c>
       <c r="AD44" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="AE44" t="s">
         <v>20</v>
@@ -8143,7 +8038,7 @@
         <v>19</v>
       </c>
       <c r="AJ44" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AK44" t="s">
         <v>41</v>
@@ -8152,10 +8047,10 @@
         <v>41</v>
       </c>
       <c r="AM44" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="AN44" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO44" t="s">
         <v>45</v>
@@ -8164,10 +8059,10 @@
         <v>53</v>
       </c>
       <c r="AQ44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR44" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="AU44" t="s">
         <v>26</v>
@@ -8191,7 +8086,7 @@
         <v>77</v>
       </c>
       <c r="BK44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BM44" t="s">
         <v>51</v>
@@ -8203,22 +8098,22 @@
         <v>41</v>
       </c>
       <c r="BP44" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="BQ44" t="s">
         <v>53</v>
       </c>
       <c r="BR44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BT44" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="BU44" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="BV44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX44" t="s">
         <v>58</v>
@@ -8236,13 +8131,10 @@
         <v>41</v>
       </c>
       <c r="CC44" t="s">
-        <v>346</v>
-      </c>
-      <c r="CD44" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>114346107418</v>
       </c>
@@ -8256,7 +8148,7 @@
         <v>45093.460196759261</v>
       </c>
       <c r="E45" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="J45">
         <v>3</v>
@@ -8265,13 +8157,13 @@
         <v>61</v>
       </c>
       <c r="L45" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M45">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O45" t="s">
         <v>63</v>
@@ -8301,13 +8193,13 @@
         <v>53</v>
       </c>
       <c r="AM45" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="AN45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AO45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP45" t="s">
         <v>41</v>
@@ -8316,7 +8208,7 @@
         <v>75</v>
       </c>
       <c r="AR45" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="AX45" t="s">
         <v>29</v>
@@ -8331,7 +8223,7 @@
         <v>53</v>
       </c>
       <c r="BB45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC45" t="s">
         <v>77</v>
@@ -8349,10 +8241,10 @@
         <v>41</v>
       </c>
       <c r="BR45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BV45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX45" t="s">
         <v>58</v>
@@ -8364,16 +8256,13 @@
         <v>82</v>
       </c>
       <c r="CA45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CC45" t="s">
-        <v>351</v>
-      </c>
-      <c r="CD45" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="46" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>114345735541</v>
       </c>
@@ -8387,7 +8276,7 @@
         <v>45092.999131944445</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -8396,13 +8285,13 @@
         <v>61</v>
       </c>
       <c r="L46" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="M46">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O46" t="s">
         <v>63</v>
@@ -8438,22 +8327,22 @@
         <v>53</v>
       </c>
       <c r="AM46" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="AN46" t="s">
         <v>44</v>
       </c>
       <c r="AO46" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ46" t="s">
         <v>88</v>
       </c>
-      <c r="AP46" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ46" t="s">
-        <v>89</v>
-      </c>
       <c r="AR46" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AX46" t="s">
         <v>29</v>
@@ -8474,10 +8363,10 @@
         <v>77</v>
       </c>
       <c r="BK46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BM46" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="BN46" t="s">
         <v>53</v>
@@ -8489,13 +8378,13 @@
         <v>41</v>
       </c>
       <c r="BR46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BT46" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="BV46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX46" t="s">
         <v>53</v>
@@ -8504,19 +8393,19 @@
         <v>58</v>
       </c>
       <c r="BZ46" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="CA46" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB46" t="s">
         <v>41</v>
       </c>
       <c r="CC46" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="47" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>114345723454</v>
       </c>
@@ -8530,7 +8419,7 @@
         <v>45092.977893518517</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -8539,7 +8428,7 @@
         <v>61</v>
       </c>
       <c r="L47" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="M47">
         <v>6</v>
@@ -8551,7 +8440,7 @@
         <v>38</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Q47" t="s">
         <v>53</v>
@@ -8575,22 +8464,22 @@
         <v>41</v>
       </c>
       <c r="AM47" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="AN47" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AO47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP47" t="s">
         <v>41</v>
       </c>
       <c r="AQ47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR47" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="AS47" t="s">
         <v>24</v>
@@ -8611,19 +8500,19 @@
         <v>41</v>
       </c>
       <c r="BB47" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="BC47" t="s">
         <v>19</v>
       </c>
       <c r="BD47" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="BK47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BM47" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="BN47" t="s">
         <v>41</v>
@@ -8638,10 +8527,10 @@
         <v>54</v>
       </c>
       <c r="BT47" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="BV47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX47" t="s">
         <v>53</v>
@@ -8653,13 +8542,13 @@
         <v>82</v>
       </c>
       <c r="CA47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CC47" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>114345706017</v>
       </c>
@@ -8673,7 +8562,7 @@
         <v>45092.967511574076</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -8682,7 +8571,7 @@
         <v>61</v>
       </c>
       <c r="L48" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M48">
         <v>7</v>
@@ -8694,7 +8583,7 @@
         <v>63</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Q48" t="s">
         <v>53</v>
@@ -8727,22 +8616,22 @@
         <v>41</v>
       </c>
       <c r="AM48" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="AN48" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AO48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ48" t="s">
         <v>88</v>
       </c>
-      <c r="AP48" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ48" t="s">
-        <v>89</v>
-      </c>
       <c r="AR48" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="AX48" t="s">
         <v>29</v>
@@ -8763,16 +8652,16 @@
         <v>19</v>
       </c>
       <c r="BD48" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="BI48" t="s">
         <v>19</v>
       </c>
       <c r="BJ48" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="BK48" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="BM48" t="s">
         <v>82</v>
@@ -8787,13 +8676,13 @@
         <v>53</v>
       </c>
       <c r="BR48" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="BT48" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="BV48" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX48" t="s">
         <v>53</v>
@@ -8805,16 +8694,16 @@
         <v>82</v>
       </c>
       <c r="CA48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB48" t="s">
         <v>41</v>
       </c>
       <c r="CC48" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="49" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>114345455763</v>
       </c>
@@ -8828,7 +8717,7 @@
         <v>45092.777002314811</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J49">
         <v>3</v>
@@ -8837,13 +8726,13 @@
         <v>61</v>
       </c>
       <c r="L49" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="M49">
         <v>7</v>
       </c>
       <c r="N49" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O49" t="s">
         <v>38</v>
@@ -8873,22 +8762,22 @@
         <v>53</v>
       </c>
       <c r="AM49" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="AN49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO49" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ49" t="s">
         <v>88</v>
       </c>
-      <c r="AP49" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ49" t="s">
-        <v>89</v>
-      </c>
       <c r="AR49" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="AX49" t="s">
         <v>29</v>
@@ -8903,16 +8792,16 @@
         <v>53</v>
       </c>
       <c r="BB49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC49" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="BK49" t="s">
         <v>19</v>
       </c>
       <c r="BL49" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="BM49" t="s">
         <v>82</v>
@@ -8927,7 +8816,7 @@
         <v>41</v>
       </c>
       <c r="BV49" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX49" t="s">
         <v>41</v>
@@ -8936,13 +8825,13 @@
         <v>82</v>
       </c>
       <c r="CA49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CC49" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="50" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>114345221228</v>
       </c>
@@ -8956,7 +8845,7 @@
         <v>45092.626226851855</v>
       </c>
       <c r="E50" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="J50">
         <v>3</v>
@@ -8965,7 +8854,7 @@
         <v>61</v>
       </c>
       <c r="L50" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -9001,22 +8890,22 @@
         <v>53</v>
       </c>
       <c r="AM50" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="AN50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO50" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ50" t="s">
         <v>88</v>
       </c>
-      <c r="AP50" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ50" t="s">
-        <v>89</v>
-      </c>
       <c r="AR50" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="AX50" t="s">
         <v>29</v>
@@ -9031,13 +8920,13 @@
         <v>53</v>
       </c>
       <c r="BB50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC50" t="s">
         <v>19</v>
       </c>
       <c r="BD50" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="BE50" t="s">
         <v>30</v>
@@ -9046,7 +8935,7 @@
         <v>19</v>
       </c>
       <c r="BL50" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="BM50" t="s">
         <v>82</v>
@@ -9061,13 +8950,13 @@
         <v>53</v>
       </c>
       <c r="BR50" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="BV50" t="s">
         <v>19</v>
       </c>
       <c r="BW50" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="BX50" t="s">
         <v>58</v>
@@ -9079,16 +8968,16 @@
         <v>82</v>
       </c>
       <c r="CA50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB50" t="s">
         <v>53</v>
       </c>
       <c r="CC50" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>114340166134</v>
       </c>
@@ -9102,7 +8991,7 @@
         <v>45092.602939814817</v>
       </c>
       <c r="E51" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -9111,7 +9000,7 @@
         <v>70</v>
       </c>
       <c r="L51" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -9159,13 +9048,13 @@
         <v>53</v>
       </c>
       <c r="AM51" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AN51" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AO51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP51" t="s">
         <v>53</v>
@@ -9174,7 +9063,7 @@
         <v>75</v>
       </c>
       <c r="AR51" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="AX51" t="s">
         <v>29</v>
@@ -9210,10 +9099,10 @@
         <v>53</v>
       </c>
       <c r="BR51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS51" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="BV51" t="s">
         <v>67</v>
@@ -9228,16 +9117,16 @@
         <v>82</v>
       </c>
       <c r="CA51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB51" t="s">
         <v>53</v>
       </c>
       <c r="CC51" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>114336289460</v>
       </c>
@@ -9251,7 +9140,7 @@
         <v>45092.597997685189</v>
       </c>
       <c r="E52" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -9260,7 +9149,7 @@
         <v>70</v>
       </c>
       <c r="L52" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="M52">
         <v>7</v>
@@ -9296,7 +9185,7 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="AN52" t="s">
         <v>44</v>
@@ -9311,7 +9200,7 @@
         <v>46</v>
       </c>
       <c r="AR52" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AW52" t="s">
         <v>28</v>
@@ -9326,13 +9215,13 @@
         <v>53</v>
       </c>
       <c r="BB52" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="BC52" t="s">
         <v>77</v>
       </c>
       <c r="BK52" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="BM52" t="s">
         <v>82</v>
@@ -9347,16 +9236,16 @@
         <v>53</v>
       </c>
       <c r="BR52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BT52" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="BU52" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="BV52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="BX52" t="s">
         <v>41</v>
@@ -9374,13 +9263,10 @@
         <v>41</v>
       </c>
       <c r="CC52" t="s">
-        <v>392</v>
-      </c>
-      <c r="CD52" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>114337432666</v>
       </c>
@@ -9394,7 +9280,7 @@
         <v>45092.597881944443</v>
       </c>
       <c r="E53" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -9403,7 +9289,7 @@
         <v>70</v>
       </c>
       <c r="L53" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="M53">
         <v>6</v>
@@ -9439,13 +9325,13 @@
         <v>53</v>
       </c>
       <c r="AM53" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="AN53" t="s">
         <v>73</v>
       </c>
       <c r="AO53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AP53" t="s">
         <v>53</v>
@@ -9454,7 +9340,7 @@
         <v>46</v>
       </c>
       <c r="AR53" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="AT53" t="s">
         <v>25</v>
@@ -9490,22 +9376,22 @@
         <v>41</v>
       </c>
       <c r="BP53" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="BQ53" t="s">
         <v>41</v>
       </c>
       <c r="BR53" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="BS53" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="BU53" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="BV53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="BX53" t="s">
         <v>58</v>
@@ -9523,13 +9409,10 @@
         <v>41</v>
       </c>
       <c r="CC53" t="s">
-        <v>400</v>
-      </c>
-      <c r="CD53" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>114338308897</v>
       </c>
@@ -9543,7 +9426,7 @@
         <v>45092.597766203704</v>
       </c>
       <c r="E54" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -9552,7 +9435,7 @@
         <v>70</v>
       </c>
       <c r="L54" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="M54">
         <v>3</v>
@@ -9588,22 +9471,22 @@
         <v>41</v>
       </c>
       <c r="AM54" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="AN54" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AP54" t="s">
         <v>41</v>
       </c>
       <c r="AQ54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR54" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="AS54" t="s">
         <v>24</v>
@@ -9621,7 +9504,7 @@
         <v>41</v>
       </c>
       <c r="BB54" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="BC54" t="s">
         <v>77</v>
@@ -9630,7 +9513,7 @@
         <v>19</v>
       </c>
       <c r="BJ54" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="BM54" t="s">
         <v>51</v>
@@ -9648,10 +9531,10 @@
         <v>54</v>
       </c>
       <c r="BS54" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="BV54" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="BX54" t="s">
         <v>58</v>
@@ -9663,16 +9546,13 @@
         <v>51</v>
       </c>
       <c r="CA54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CC54" t="s">
-        <v>407</v>
-      </c>
-      <c r="CD54" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>114339301389</v>
       </c>
@@ -9686,7 +9566,7 @@
         <v>45092.597650462965</v>
       </c>
       <c r="E55" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -9695,7 +9575,7 @@
         <v>70</v>
       </c>
       <c r="L55" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="M55">
         <v>4</v>
@@ -9752,22 +9632,22 @@
         <v>53</v>
       </c>
       <c r="AM55" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="AN55" t="s">
         <v>73</v>
       </c>
       <c r="AO55" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ55" t="s">
         <v>88</v>
       </c>
-      <c r="AP55" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ55" t="s">
-        <v>89</v>
-      </c>
       <c r="AR55" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="AX55" t="s">
         <v>29</v>
@@ -9782,7 +9662,7 @@
         <v>53</v>
       </c>
       <c r="BB55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC55" t="s">
         <v>77</v>
@@ -9791,7 +9671,7 @@
         <v>30</v>
       </c>
       <c r="BM55" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="BN55" t="s">
         <v>53</v>
@@ -9803,10 +9683,10 @@
         <v>41</v>
       </c>
       <c r="BR55" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="BS55" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="BV55" t="s">
         <v>67</v>
@@ -9818,19 +9698,16 @@
         <v>81</v>
       </c>
       <c r="BZ55" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="CA55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CC55" t="s">
-        <v>414</v>
-      </c>
-      <c r="CD55" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="56" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>114339423609</v>
       </c>
@@ -9844,7 +9721,7 @@
         <v>45092.597534722219</v>
       </c>
       <c r="E56" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="J56">
         <v>2</v>
@@ -9853,7 +9730,7 @@
         <v>70</v>
       </c>
       <c r="L56" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="M56">
         <v>2</v>
@@ -9886,10 +9763,10 @@
         <v>42</v>
       </c>
       <c r="AM56" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="AN56" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AO56" t="s">
         <v>45</v>
@@ -9898,10 +9775,10 @@
         <v>41</v>
       </c>
       <c r="AQ56" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AR56" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="AS56" t="s">
         <v>24</v>
@@ -9931,7 +9808,7 @@
         <v>19</v>
       </c>
       <c r="BJ56" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="BM56" t="s">
         <v>51</v>
@@ -9943,19 +9820,19 @@
         <v>41</v>
       </c>
       <c r="BP56" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="BQ56" t="s">
         <v>41</v>
       </c>
       <c r="BS56" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="BV56" t="s">
         <v>19</v>
       </c>
       <c r="BW56" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="BX56" t="s">
         <v>81</v>
@@ -9973,10 +9850,10 @@
         <v>41</v>
       </c>
       <c r="CC56" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>114340355163</v>
       </c>
@@ -9990,7 +9867,7 @@
         <v>45092.597268518519</v>
       </c>
       <c r="E57" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -9999,7 +9876,7 @@
         <v>70</v>
       </c>
       <c r="L57" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="M57">
         <v>6</v>
@@ -10035,7 +9912,7 @@
         <v>41</v>
       </c>
       <c r="AM57" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="AN57" t="s">
         <v>73</v>
@@ -10047,10 +9924,10 @@
         <v>41</v>
       </c>
       <c r="AQ57" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AR57" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="AS57" t="s">
         <v>24</v>
@@ -10080,7 +9957,7 @@
         <v>19</v>
       </c>
       <c r="BD57" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="BE57" t="s">
         <v>30</v>
@@ -10095,22 +9972,22 @@
         <v>41</v>
       </c>
       <c r="BP57" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="BQ57" t="s">
         <v>53</v>
       </c>
       <c r="BR57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BU57" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="BV57" t="s">
         <v>19</v>
       </c>
       <c r="BW57" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="BX57" t="s">
         <v>58</v>
@@ -10128,10 +10005,10 @@
         <v>41</v>
       </c>
       <c r="CC57" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
-    <row r="58" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>114340454084</v>
       </c>
@@ -10145,7 +10022,7 @@
         <v>45092.59715277778</v>
       </c>
       <c r="E58" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="J58">
         <v>5</v>
@@ -10154,7 +10031,7 @@
         <v>70</v>
       </c>
       <c r="L58" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="M58">
         <v>4</v>
@@ -10166,7 +10043,7 @@
         <v>63</v>
       </c>
       <c r="P58" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Q58" t="s">
         <v>40</v>
@@ -10190,10 +10067,10 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AN58" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AO58" t="s">
         <v>45</v>
@@ -10205,7 +10082,7 @@
         <v>75</v>
       </c>
       <c r="AR58" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="AT58" t="s">
         <v>25</v>
@@ -10220,7 +10097,7 @@
         <v>53</v>
       </c>
       <c r="BB58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC58" t="s">
         <v>77</v>
@@ -10241,10 +10118,10 @@
         <v>53</v>
       </c>
       <c r="BR58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS58" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="BV58" t="s">
         <v>67</v>
@@ -10259,19 +10136,16 @@
         <v>82</v>
       </c>
       <c r="CA58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB58" t="s">
         <v>41</v>
       </c>
       <c r="CC58" t="s">
-        <v>434</v>
-      </c>
-      <c r="CD58" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="59" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>114341970174</v>
       </c>
@@ -10285,7 +10159,7 @@
         <v>45092.597037037034</v>
       </c>
       <c r="E59" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J59">
         <v>2</v>
@@ -10294,13 +10168,13 @@
         <v>70</v>
       </c>
       <c r="L59" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="M59">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O59" t="s">
         <v>63</v>
@@ -10345,22 +10219,22 @@
         <v>53</v>
       </c>
       <c r="AM59" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="AN59" t="s">
         <v>73</v>
       </c>
       <c r="AO59" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ59" t="s">
         <v>88</v>
       </c>
-      <c r="AP59" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ59" t="s">
-        <v>89</v>
-      </c>
       <c r="AR59" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="AX59" t="s">
         <v>29</v>
@@ -10396,19 +10270,19 @@
         <v>41</v>
       </c>
       <c r="BR59" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="BS59" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="BU59" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="BV59" t="s">
         <v>19</v>
       </c>
       <c r="BW59" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="BX59" t="s">
         <v>58</v>
@@ -10420,16 +10294,16 @@
         <v>82</v>
       </c>
       <c r="CA59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB59" t="s">
         <v>53</v>
       </c>
       <c r="CC59" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>114343061350</v>
       </c>
@@ -10443,7 +10317,7 @@
         <v>45092.596817129626</v>
       </c>
       <c r="E60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J60">
         <v>3</v>
@@ -10452,7 +10326,7 @@
         <v>61</v>
       </c>
       <c r="L60" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="M60">
         <v>6</v>
@@ -10488,13 +10362,13 @@
         <v>53</v>
       </c>
       <c r="AM60" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="AN60" t="s">
         <v>73</v>
       </c>
       <c r="AO60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AP60" t="s">
         <v>41</v>
@@ -10503,7 +10377,7 @@
         <v>75</v>
       </c>
       <c r="AR60" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="AX60" t="s">
         <v>29</v>
@@ -10524,7 +10398,7 @@
         <v>77</v>
       </c>
       <c r="BK60" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="BM60" t="s">
         <v>82</v>
@@ -10533,13 +10407,13 @@
         <v>41</v>
       </c>
       <c r="BP60" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="BQ60" t="s">
         <v>53</v>
       </c>
       <c r="BR60" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="BV60" t="s">
         <v>67</v>
@@ -10554,13 +10428,13 @@
         <v>82</v>
       </c>
       <c r="CA60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CC60" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="61" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>114343074915</v>
       </c>
@@ -10574,7 +10448,7 @@
         <v>45092.596678240741</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J61">
         <v>3</v>
@@ -10583,7 +10457,7 @@
         <v>61</v>
       </c>
       <c r="L61" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="M61">
         <v>3</v>
@@ -10619,22 +10493,22 @@
         <v>53</v>
       </c>
       <c r="AM61" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="AN61" t="s">
         <v>44</v>
       </c>
       <c r="AO61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AP61" t="s">
         <v>41</v>
       </c>
       <c r="AQ61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR61" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="AT61" t="s">
         <v>25</v>
@@ -10655,10 +10529,10 @@
         <v>19</v>
       </c>
       <c r="BD61" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="BK61" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="BM61" t="s">
         <v>82</v>
@@ -10670,25 +10544,25 @@
         <v>41</v>
       </c>
       <c r="BP61" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="BQ61" t="s">
         <v>53</v>
       </c>
       <c r="BR61" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="BT61" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="BU61" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="BV61" t="s">
         <v>19</v>
       </c>
       <c r="BW61" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="BX61" t="s">
         <v>53</v>
@@ -10706,10 +10580,10 @@
         <v>41</v>
       </c>
       <c r="CC61" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
-    <row r="62" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>114343091083</v>
       </c>
@@ -10723,7 +10597,7 @@
         <v>45092.596550925926</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -10732,7 +10606,7 @@
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="M62">
         <v>7</v>
@@ -10768,13 +10642,13 @@
         <v>53</v>
       </c>
       <c r="AM62" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="AN62" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AO62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP62" t="s">
         <v>41</v>
@@ -10783,7 +10657,7 @@
         <v>75</v>
       </c>
       <c r="AR62" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="AX62" t="s">
         <v>29</v>
@@ -10807,7 +10681,7 @@
         <v>19</v>
       </c>
       <c r="BL62" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="BM62" t="s">
         <v>51</v>
@@ -10819,7 +10693,7 @@
         <v>41</v>
       </c>
       <c r="BP62" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="BQ62" t="s">
         <v>41</v>
@@ -10831,7 +10705,7 @@
         <v>53</v>
       </c>
       <c r="BW62" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="BX62" t="s">
         <v>58</v>
@@ -10846,10 +10720,10 @@
         <v>41</v>
       </c>
       <c r="CC62" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>114343940734</v>
       </c>
@@ -10863,7 +10737,7 @@
         <v>45092.596145833333</v>
       </c>
       <c r="E63" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="J63">
         <v>3</v>
@@ -10872,7 +10746,7 @@
         <v>61</v>
       </c>
       <c r="L63" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M63">
         <v>5</v>
@@ -10908,13 +10782,13 @@
         <v>53</v>
       </c>
       <c r="AM63" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="AN63" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AO63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP63" t="s">
         <v>41</v>
@@ -10923,7 +10797,7 @@
         <v>75</v>
       </c>
       <c r="AR63" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="AX63" t="s">
         <v>29</v>
@@ -10938,13 +10812,13 @@
         <v>41</v>
       </c>
       <c r="BB63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC63" t="s">
         <v>77</v>
       </c>
       <c r="BK63" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="BM63" t="s">
         <v>51</v>
@@ -10959,7 +10833,7 @@
         <v>41</v>
       </c>
       <c r="BR63" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="BX63" t="s">
         <v>41</v>
@@ -10971,16 +10845,16 @@
         <v>51</v>
       </c>
       <c r="CA63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="CB63" t="s">
         <v>41</v>
       </c>
       <c r="CC63" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
-    <row r="64" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>114345060929</v>
       </c>
@@ -10994,7 +10868,7 @@
         <v>45092.595833333333</v>
       </c>
       <c r="E64" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -11003,7 +10877,7 @@
         <v>70</v>
       </c>
       <c r="L64" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="M64">
         <v>2</v>
@@ -11039,7 +10913,7 @@
         <v>41</v>
       </c>
       <c r="AM64" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="AN64" t="s">
         <v>73</v>
@@ -11054,7 +10928,7 @@
         <v>46</v>
       </c>
       <c r="AR64" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AS64" t="s">
         <v>24</v>
@@ -11081,13 +10955,13 @@
         <v>19</v>
       </c>
       <c r="BD64" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="BI64" t="s">
         <v>19</v>
       </c>
       <c r="BJ64" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="BM64" t="s">
         <v>51</v>
@@ -11099,19 +10973,19 @@
         <v>41</v>
       </c>
       <c r="BP64" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="BQ64" t="s">
         <v>53</v>
       </c>
       <c r="BR64" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="BS64" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="BV64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="BX64" t="s">
         <v>81</v>
@@ -11129,10 +11003,7 @@
         <v>41</v>
       </c>
       <c r="CC64" t="s">
-        <v>471</v>
-      </c>
-      <c r="CD64" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:81" x14ac:dyDescent="0.3">
@@ -11149,7 +11020,7 @@
         <v>45092.595335648148</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J65">
         <v>3</v>
@@ -11158,7 +11029,7 @@
         <v>61</v>
       </c>
       <c r="L65" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M65">
         <v>4</v>
@@ -11194,7 +11065,7 @@
         <v>53</v>
       </c>
       <c r="AM65" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="AN65" t="s">
         <v>44</v>
@@ -11206,10 +11077,10 @@
         <v>41</v>
       </c>
       <c r="AQ65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR65" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="AS65" t="s">
         <v>24</v>
@@ -11230,10 +11101,10 @@
         <v>19</v>
       </c>
       <c r="BD65" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="BK65" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="BM65" t="s">
         <v>51</v>
@@ -11245,19 +11116,19 @@
         <v>41</v>
       </c>
       <c r="BP65" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="BQ65" t="s">
         <v>41</v>
       </c>
       <c r="BR65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BU65" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="BV65" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="BX65" t="s">
         <v>58</v>
@@ -11275,11 +11146,11 @@
         <v>41</v>
       </c>
       <c r="CC65" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CD65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:CC65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>